--- a/toplam_nufus_sayisi.xlsx
+++ b/toplam_nufus_sayisi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Documents/GitHub/muy665-bahar2024-takim-code_or_die-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7842C645-F007-4E3F-B117-60D05D1E39C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B295B8-4DA1-4946-A843-3B0202943DA9}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7842C645-F007-4E3F-B117-60D05D1E39C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A343FCBD-8D15-4AB0-B01E-F045145F6DD8}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{10DF59C5-BA9F-4F65-88C6-32E104FF8168}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>ortadogu anadolu</t>
   </si>
   <si>
-    <t>guneydogu anadolu</t>
-  </si>
-  <si>
     <t>yil</t>
   </si>
   <si>
     <t>istanbul</t>
+  </si>
+  <si>
+    <t>güneydogu anadolu</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P12"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
